--- a/Checklists/Mobile_App_Security_Checklist-Spanish_1.2.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-Spanish_1.2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sven/PentestTools/OWASP/owasp-mstg/Checklists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57BE51E9-9767-E740-8013-FA303DAB9892}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF7B7F0-51DA-7542-A1F4-F0756BDE868F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="387">
   <si>
     <t>ID</t>
   </si>
@@ -1296,6 +1296,9 @@
   </si>
   <si>
     <t>Testing Obfuscation (MSTG-RESILIENCE-9)</t>
+  </si>
+  <si>
+    <t>Versión del MSTG</t>
   </si>
 </sst>
 </file>
@@ -2581,157 +2584,6 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2739,6 +2591,157 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="63">
@@ -2806,49 +2809,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -4044,7 +4005,7 @@
   <dimension ref="B1:D50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B14" sqref="B14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
@@ -4056,48 +4017,48 @@
   <sheetData>
     <row r="1" spans="2:4" ht="8" customHeight="1"/>
     <row r="2" spans="2:4">
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="122" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="126"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="124"/>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="127"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="127"/>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="127"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="129"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="127"/>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="127"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="129"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="127"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="127"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="129"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="127"/>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="127"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="129"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="127"/>
     </row>
     <row r="8" spans="2:4" hidden="1">
-      <c r="B8" s="130"/>
-      <c r="C8" s="131"/>
-      <c r="D8" s="132"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="130"/>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="133" t="s">
+      <c r="B9" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="121"/>
-      <c r="D9" s="122"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="133"/>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="33" t="s">
@@ -4130,10 +4091,10 @@
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="138" t="s">
-        <v>190</v>
+        <v>386</v>
       </c>
       <c r="C13" s="138"/>
-      <c r="D13" s="165">
+      <c r="D13" s="114">
         <v>1.2</v>
       </c>
     </row>
@@ -4158,60 +4119,60 @@
       <c r="D15" s="136"/>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="119" t="s">
+      <c r="B16" s="118" t="s">
         <v>153</v>
       </c>
-      <c r="C16" s="120"/>
+      <c r="C16" s="119"/>
       <c r="D16" s="12"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="114" t="s">
+      <c r="B17" s="120" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="123"/>
+      <c r="C17" s="121"/>
       <c r="D17" s="12"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="119" t="s">
+      <c r="B18" s="118" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="120"/>
+      <c r="C18" s="119"/>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="119" t="s">
+      <c r="B19" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="C19" s="120"/>
+      <c r="C19" s="119"/>
       <c r="D19" s="12"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="119" t="s">
+      <c r="B20" s="118" t="s">
         <v>157</v>
       </c>
-      <c r="C20" s="120"/>
+      <c r="C20" s="119"/>
       <c r="D20" s="12"/>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="119" t="s">
+      <c r="B21" s="118" t="s">
         <v>158</v>
       </c>
-      <c r="C21" s="120"/>
+      <c r="C21" s="119"/>
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="2:4" ht="70.5" customHeight="1">
-      <c r="B22" s="119" t="s">
+      <c r="B22" s="118" t="s">
         <v>159</v>
       </c>
-      <c r="C22" s="120"/>
+      <c r="C22" s="119"/>
       <c r="D22" s="12" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="121"/>
-      <c r="C23" s="121"/>
-      <c r="D23" s="122"/>
+      <c r="B23" s="132"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="133"/>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="1" t="s">
@@ -4228,37 +4189,37 @@
       <c r="D25" s="12"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="119" t="s">
+      <c r="B26" s="118" t="s">
         <v>163</v>
       </c>
-      <c r="C26" s="120"/>
+      <c r="C26" s="119"/>
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="119" t="s">
+      <c r="B27" s="118" t="s">
         <v>164</v>
       </c>
-      <c r="C27" s="120"/>
+      <c r="C27" s="119"/>
       <c r="D27" s="12"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="119" t="s">
+      <c r="B28" s="118" t="s">
         <v>165</v>
       </c>
-      <c r="C28" s="120"/>
+      <c r="C28" s="119"/>
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="119" t="s">
+      <c r="B29" s="118" t="s">
         <v>167</v>
       </c>
-      <c r="C29" s="120"/>
+      <c r="C29" s="119"/>
       <c r="D29" s="12"/>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="121"/>
-      <c r="C30" s="121"/>
-      <c r="D30" s="122"/>
+      <c r="B30" s="132"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="133"/>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="1" t="s">
@@ -4275,37 +4236,37 @@
       <c r="D32" s="12"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="119" t="s">
+      <c r="B33" s="118" t="s">
         <v>166</v>
       </c>
-      <c r="C33" s="120"/>
+      <c r="C33" s="119"/>
       <c r="D33" s="12"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="119" t="s">
+      <c r="B34" s="118" t="s">
         <v>164</v>
       </c>
-      <c r="C34" s="120"/>
+      <c r="C34" s="119"/>
       <c r="D34" s="12"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="119" t="s">
+      <c r="B35" s="118" t="s">
         <v>165</v>
       </c>
-      <c r="C35" s="120"/>
+      <c r="C35" s="119"/>
       <c r="D35" s="12"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="119" t="s">
+      <c r="B36" s="118" t="s">
         <v>168</v>
       </c>
-      <c r="C36" s="120"/>
+      <c r="C36" s="119"/>
       <c r="D36" s="12"/>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="121"/>
-      <c r="C37" s="121"/>
-      <c r="D37" s="122"/>
+      <c r="B37" s="132"/>
+      <c r="C37" s="132"/>
+      <c r="D37" s="133"/>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="1" t="s">
@@ -4315,100 +4276,97 @@
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="116"/>
-      <c r="C39" s="117"/>
-      <c r="D39" s="118"/>
+      <c r="B39" s="140"/>
+      <c r="C39" s="141"/>
+      <c r="D39" s="142"/>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="114" t="s">
+      <c r="B40" s="120" t="s">
         <v>170</v>
       </c>
-      <c r="C40" s="115"/>
+      <c r="C40" s="143"/>
       <c r="D40" s="24"/>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="114" t="s">
+      <c r="B41" s="120" t="s">
         <v>171</v>
       </c>
-      <c r="C41" s="115"/>
+      <c r="C41" s="143"/>
       <c r="D41" s="24"/>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="114" t="s">
+      <c r="B42" s="120" t="s">
         <v>172</v>
       </c>
-      <c r="C42" s="115"/>
+      <c r="C42" s="143"/>
       <c r="D42" s="24"/>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="114" t="s">
+      <c r="B43" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="C43" s="115"/>
+      <c r="C43" s="143"/>
       <c r="D43" s="25"/>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="114" t="s">
+      <c r="B44" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="C44" s="115"/>
+      <c r="C44" s="143"/>
       <c r="D44" s="24"/>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="116"/>
-      <c r="C45" s="117"/>
-      <c r="D45" s="118"/>
+      <c r="B45" s="140"/>
+      <c r="C45" s="141"/>
+      <c r="D45" s="142"/>
     </row>
     <row r="46" spans="2:4">
-      <c r="B46" s="114" t="s">
+      <c r="B46" s="120" t="s">
         <v>170</v>
       </c>
-      <c r="C46" s="115"/>
+      <c r="C46" s="143"/>
       <c r="D46" s="24"/>
     </row>
     <row r="47" spans="2:4">
-      <c r="B47" s="114" t="s">
+      <c r="B47" s="120" t="s">
         <v>171</v>
       </c>
-      <c r="C47" s="115"/>
+      <c r="C47" s="143"/>
       <c r="D47" s="24"/>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" s="114" t="s">
+      <c r="B48" s="120" t="s">
         <v>172</v>
       </c>
-      <c r="C48" s="115"/>
+      <c r="C48" s="143"/>
       <c r="D48" s="24"/>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="114" t="s">
+      <c r="B49" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="C49" s="115"/>
+      <c r="C49" s="143"/>
       <c r="D49" s="25"/>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="114" t="s">
+      <c r="B50" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="C50" s="115"/>
+      <c r="C50" s="143"/>
       <c r="D50" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B2:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B39:D39"/>
@@ -4423,16 +4381,19 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B2:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <phoneticPr fontId="41"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4477,11 +4438,11 @@
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="2:24">
-      <c r="B4" s="144"/>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
     </row>
     <row r="5" spans="2:24" ht="16.25" customHeight="1" thickBot="1">
       <c r="B5" s="20"/>
@@ -4496,16 +4457,16 @@
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="154" t="s">
+      <c r="G6" s="161" t="s">
         <v>109</v>
       </c>
-      <c r="H6" s="155"/>
-      <c r="I6" s="156"/>
-      <c r="V6" s="157" t="s">
+      <c r="H6" s="162"/>
+      <c r="I6" s="163"/>
+      <c r="V6" s="144" t="s">
         <v>110</v>
       </c>
-      <c r="W6" s="158"/>
-      <c r="X6" s="159"/>
+      <c r="W6" s="145"/>
+      <c r="X6" s="146"/>
     </row>
     <row r="7" spans="2:24" ht="15" thickBot="1">
       <c r="B7" s="13"/>
@@ -4520,18 +4481,18 @@
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="145">
+      <c r="G8" s="147">
         <f>AVERAGE(G43:G50)*5</f>
         <v>0</v>
       </c>
-      <c r="H8" s="146"/>
-      <c r="I8" s="147"/>
-      <c r="V8" s="145">
+      <c r="H8" s="148"/>
+      <c r="I8" s="149"/>
+      <c r="V8" s="147">
         <f>AVERAGE(K43:K50)*5</f>
         <v>0</v>
       </c>
-      <c r="W8" s="146"/>
-      <c r="X8" s="147"/>
+      <c r="W8" s="148"/>
+      <c r="X8" s="149"/>
     </row>
     <row r="9" spans="2:24" ht="91.25" customHeight="1">
       <c r="B9" s="21"/>
@@ -4539,12 +4500,12 @@
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="150"/>
-      <c r="V9" s="148"/>
-      <c r="W9" s="149"/>
-      <c r="X9" s="150"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="151"/>
+      <c r="I9" s="152"/>
+      <c r="V9" s="150"/>
+      <c r="W9" s="151"/>
+      <c r="X9" s="152"/>
     </row>
     <row r="10" spans="2:24" ht="16.5" customHeight="1">
       <c r="B10" s="13"/>
@@ -4552,12 +4513,12 @@
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="150"/>
-      <c r="V10" s="148"/>
-      <c r="W10" s="149"/>
-      <c r="X10" s="150"/>
+      <c r="G10" s="150"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="152"/>
+      <c r="V10" s="150"/>
+      <c r="W10" s="151"/>
+      <c r="X10" s="152"/>
     </row>
     <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1">
       <c r="B11" s="13"/>
@@ -4565,19 +4526,19 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="151"/>
-      <c r="H11" s="152"/>
-      <c r="I11" s="153"/>
-      <c r="V11" s="151"/>
-      <c r="W11" s="152"/>
-      <c r="X11" s="153"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="155"/>
+      <c r="V11" s="153"/>
+      <c r="W11" s="154"/>
+      <c r="X11" s="155"/>
     </row>
     <row r="12" spans="2:24" ht="16.25" customHeight="1">
-      <c r="B12" s="140"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
+      <c r="B12" s="156"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
     </row>
     <row r="13" spans="2:24">
       <c r="B13" s="14"/>
@@ -4601,11 +4562,11 @@
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="2:24" ht="16.25" customHeight="1">
-      <c r="B16" s="140"/>
-      <c r="C16" s="140"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
+      <c r="B16" s="156"/>
+      <c r="C16" s="156"/>
+      <c r="D16" s="156"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="156"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="14"/>
@@ -4658,18 +4619,18 @@
     </row>
     <row r="35" spans="3:11" ht="15.75" customHeight="1"/>
     <row r="41" spans="3:11">
-      <c r="D41" s="141" t="s">
+      <c r="D41" s="157" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="142"/>
-      <c r="F41" s="142"/>
-      <c r="G41" s="143"/>
-      <c r="H41" s="141" t="s">
+      <c r="E41" s="158"/>
+      <c r="F41" s="158"/>
+      <c r="G41" s="159"/>
+      <c r="H41" s="157" t="s">
         <v>78</v>
       </c>
-      <c r="I41" s="142"/>
-      <c r="J41" s="142"/>
-      <c r="K41" s="143"/>
+      <c r="I41" s="158"/>
+      <c r="J41" s="158"/>
+      <c r="K41" s="159"/>
     </row>
     <row r="42" spans="3:11">
       <c r="D42" s="17" t="s">
@@ -4995,15 +4956,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="G8:I11"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="V6:X6"/>
     <mergeCell ref="V8:X11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B16:F16"/>
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="H41:K41"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="G8:I11"/>
-    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <phoneticPr fontId="41"/>
   <conditionalFormatting sqref="F14">
@@ -5016,7 +4977,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5030,7 +4991,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="9" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5062,16 +5023,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="19">
-      <c r="B1" s="160" t="s">
+      <c r="B1" s="164" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="160"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161"/>
-      <c r="I1" s="161"/>
+      <c r="C1" s="164"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
     </row>
     <row r="2" spans="2:11">
       <c r="B2" s="46"/>
@@ -5104,11 +5065,11 @@
       <c r="G3" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="H3" s="163" t="s">
+      <c r="H3" s="167" t="s">
         <v>185</v>
       </c>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
       <c r="K3" s="52" t="s">
         <v>186</v>
       </c>
@@ -5124,8 +5085,8 @@
       <c r="E4" s="54"/>
       <c r="F4" s="54"/>
       <c r="G4" s="54"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
       <c r="J4" s="54"/>
       <c r="K4" s="56"/>
     </row>
@@ -7830,11 +7791,11 @@
       <c r="G3" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="H3" s="163" t="s">
+      <c r="H3" s="167" t="s">
         <v>185</v>
       </c>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
       <c r="K3" s="52" t="s">
         <v>186</v>
       </c>
@@ -7850,8 +7811,8 @@
       <c r="E4" s="54"/>
       <c r="F4" s="54"/>
       <c r="G4" s="54"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
       <c r="J4" s="54"/>
       <c r="K4" s="56"/>
     </row>
@@ -9938,7 +9899,7 @@
   </mergeCells>
   <phoneticPr fontId="41"/>
   <conditionalFormatting sqref="H5:H28 H33:H81">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="0x05">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="0x05">
       <formula>NOT(ISERROR(SEARCH("0x05",H5)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10105,7 +10066,7 @@
       <c r="F8" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="167" t="s">
+      <c r="G8" s="116" t="s">
         <v>383</v>
       </c>
       <c r="H8" s="91"/>
@@ -10126,7 +10087,7 @@
       <c r="F9" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="G9" s="167" t="s">
+      <c r="G9" s="116" t="s">
         <v>384</v>
       </c>
       <c r="H9" s="91"/>
@@ -10147,7 +10108,7 @@
       <c r="F10" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="166"/>
+      <c r="G10" s="115"/>
       <c r="H10" s="91"/>
     </row>
     <row r="11" spans="2:8" ht="32">
@@ -10166,7 +10127,7 @@
       <c r="F11" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="168" t="s">
+      <c r="G11" s="117" t="s">
         <v>81</v>
       </c>
       <c r="H11" s="91"/>
@@ -10187,7 +10148,7 @@
       <c r="F12" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="168" t="s">
+      <c r="G12" s="117" t="s">
         <v>81</v>
       </c>
       <c r="H12" s="91"/>
@@ -10208,7 +10169,7 @@
       <c r="F13" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="167" t="s">
+      <c r="G13" s="116" t="s">
         <v>385</v>
       </c>
       <c r="H13" s="91"/>
@@ -10514,10 +10475,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="168" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="164"/>
+      <c r="B1" s="168"/>
       <c r="C1" s="102"/>
       <c r="D1" s="46"/>
       <c r="E1" s="46"/>

--- a/Checklists/Mobile_App_Security_Checklist-Spanish_1.2.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-Spanish_1.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sven/PentestTools/OWASP/owasp-mstg/Checklists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF7B7F0-51DA-7542-A1F4-F0756BDE868F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8578B111-F4C6-BF41-A2EF-F6070499BAA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="6" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="388">
   <si>
     <t>ID</t>
   </si>
@@ -1299,6 +1299,9 @@
   </si>
   <si>
     <t>Versión del MSTG</t>
+  </si>
+  <si>
+    <t>1.1.3-excel</t>
   </si>
 </sst>
 </file>
@@ -2593,13 +2596,31 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2634,12 +2655,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2658,17 +2673,42 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2679,33 +2719,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2717,16 +2730,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4005,7 +4008,7 @@
   <dimension ref="B1:D50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:C14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
@@ -4017,48 +4020,48 @@
   <sheetData>
     <row r="1" spans="2:4" ht="8" customHeight="1"/>
     <row r="2" spans="2:4">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="128" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="124"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="130"/>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="125"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="127"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="133"/>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="125"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="127"/>
+      <c r="B4" s="131"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="133"/>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="125"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="127"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="133"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="125"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="127"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="133"/>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="125"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="127"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="133"/>
     </row>
     <row r="8" spans="2:4" hidden="1">
-      <c r="B8" s="128"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="130"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="136"/>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="131" t="s">
+      <c r="B9" s="137" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="132"/>
-      <c r="D9" s="133"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="126"/>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="33" t="s">
@@ -4068,19 +4071,19 @@
       <c r="D10" s="36"/>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="138" t="s">
+      <c r="B11" s="142" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="138"/>
+      <c r="C11" s="142"/>
       <c r="D11" s="43">
         <v>1.2</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="139" t="s">
+      <c r="B12" s="143" t="s">
         <v>194</v>
       </c>
-      <c r="C12" s="139"/>
+      <c r="C12" s="143"/>
       <c r="D12" s="37" t="str">
         <f>HYPERLINK(CONCATENATE(
 "https://github.com/OWASP/owasp-masvs/blob/",
@@ -4090,89 +4093,89 @@
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="138" t="s">
+      <c r="B13" s="142" t="s">
         <v>386</v>
       </c>
-      <c r="C13" s="138"/>
-      <c r="D13" s="114">
-        <v>1.2</v>
+      <c r="C13" s="142"/>
+      <c r="D13" s="114" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="17">
-      <c r="B14" s="137" t="s">
+      <c r="B14" s="141" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="137"/>
+      <c r="C14" s="141"/>
       <c r="D14" s="35" t="str">
         <f>HYPERLINK(CONCATENATE(
 "https://github.com/OWASP/owasp-mstg/blob/",
 MSTG_VERSION,
 "/Document/"))</f>
-        <v>https://github.com/OWASP/owasp-mstg/blob/1.2/Document/</v>
+        <v>https://github.com/OWASP/owasp-mstg/blob/1.1.3-excel/Document/</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="40.25" customHeight="1">
-      <c r="B15" s="134" t="s">
+      <c r="B15" s="138" t="s">
         <v>191</v>
       </c>
-      <c r="C15" s="135"/>
-      <c r="D15" s="136"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="140"/>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="118" t="s">
+      <c r="B16" s="123" t="s">
         <v>153</v>
       </c>
-      <c r="C16" s="119"/>
+      <c r="C16" s="124"/>
       <c r="D16" s="12"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="120" t="s">
+      <c r="B17" s="118" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="121"/>
+      <c r="C17" s="127"/>
       <c r="D17" s="12"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="118" t="s">
+      <c r="B18" s="123" t="s">
         <v>155</v>
       </c>
-      <c r="C18" s="119"/>
+      <c r="C18" s="124"/>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="118" t="s">
+      <c r="B19" s="123" t="s">
         <v>156</v>
       </c>
-      <c r="C19" s="119"/>
+      <c r="C19" s="124"/>
       <c r="D19" s="12"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="118" t="s">
+      <c r="B20" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="C20" s="119"/>
+      <c r="C20" s="124"/>
       <c r="D20" s="12"/>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="118" t="s">
+      <c r="B21" s="123" t="s">
         <v>158</v>
       </c>
-      <c r="C21" s="119"/>
+      <c r="C21" s="124"/>
       <c r="D21" s="12"/>
     </row>
     <row r="22" spans="2:4" ht="70.5" customHeight="1">
-      <c r="B22" s="118" t="s">
+      <c r="B22" s="123" t="s">
         <v>159</v>
       </c>
-      <c r="C22" s="119"/>
+      <c r="C22" s="124"/>
       <c r="D22" s="12" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="132"/>
-      <c r="C23" s="132"/>
-      <c r="D23" s="133"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="126"/>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="1" t="s">
@@ -4189,37 +4192,37 @@
       <c r="D25" s="12"/>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="118" t="s">
+      <c r="B26" s="123" t="s">
         <v>163</v>
       </c>
-      <c r="C26" s="119"/>
+      <c r="C26" s="124"/>
       <c r="D26" s="12"/>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="118" t="s">
+      <c r="B27" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="C27" s="119"/>
+      <c r="C27" s="124"/>
       <c r="D27" s="12"/>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="118" t="s">
+      <c r="B28" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="C28" s="119"/>
+      <c r="C28" s="124"/>
       <c r="D28" s="12"/>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="118" t="s">
+      <c r="B29" s="123" t="s">
         <v>167</v>
       </c>
-      <c r="C29" s="119"/>
+      <c r="C29" s="124"/>
       <c r="D29" s="12"/>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="132"/>
-      <c r="C30" s="132"/>
-      <c r="D30" s="133"/>
+      <c r="B30" s="125"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="126"/>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="1" t="s">
@@ -4236,37 +4239,37 @@
       <c r="D32" s="12"/>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="118" t="s">
+      <c r="B33" s="123" t="s">
         <v>166</v>
       </c>
-      <c r="C33" s="119"/>
+      <c r="C33" s="124"/>
       <c r="D33" s="12"/>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="118" t="s">
+      <c r="B34" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="C34" s="119"/>
+      <c r="C34" s="124"/>
       <c r="D34" s="12"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="118" t="s">
+      <c r="B35" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="C35" s="119"/>
+      <c r="C35" s="124"/>
       <c r="D35" s="12"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="118" t="s">
+      <c r="B36" s="123" t="s">
         <v>168</v>
       </c>
-      <c r="C36" s="119"/>
+      <c r="C36" s="124"/>
       <c r="D36" s="12"/>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="132"/>
-      <c r="C37" s="132"/>
-      <c r="D37" s="133"/>
+      <c r="B37" s="125"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="126"/>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="1" t="s">
@@ -4276,97 +4279,100 @@
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="140"/>
-      <c r="C39" s="141"/>
-      <c r="D39" s="142"/>
+      <c r="B39" s="120"/>
+      <c r="C39" s="121"/>
+      <c r="D39" s="122"/>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="120" t="s">
+      <c r="B40" s="118" t="s">
         <v>170</v>
       </c>
-      <c r="C40" s="143"/>
+      <c r="C40" s="119"/>
       <c r="D40" s="24"/>
     </row>
     <row r="41" spans="2:4">
-      <c r="B41" s="120" t="s">
+      <c r="B41" s="118" t="s">
         <v>171</v>
       </c>
-      <c r="C41" s="143"/>
+      <c r="C41" s="119"/>
       <c r="D41" s="24"/>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="120" t="s">
+      <c r="B42" s="118" t="s">
         <v>172</v>
       </c>
-      <c r="C42" s="143"/>
+      <c r="C42" s="119"/>
       <c r="D42" s="24"/>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="120" t="s">
+      <c r="B43" s="118" t="s">
         <v>173</v>
       </c>
-      <c r="C43" s="143"/>
+      <c r="C43" s="119"/>
       <c r="D43" s="25"/>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="120" t="s">
+      <c r="B44" s="118" t="s">
         <v>174</v>
       </c>
-      <c r="C44" s="143"/>
+      <c r="C44" s="119"/>
       <c r="D44" s="24"/>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="140"/>
-      <c r="C45" s="141"/>
-      <c r="D45" s="142"/>
+      <c r="B45" s="120"/>
+      <c r="C45" s="121"/>
+      <c r="D45" s="122"/>
     </row>
     <row r="46" spans="2:4">
-      <c r="B46" s="120" t="s">
+      <c r="B46" s="118" t="s">
         <v>170</v>
       </c>
-      <c r="C46" s="143"/>
+      <c r="C46" s="119"/>
       <c r="D46" s="24"/>
     </row>
     <row r="47" spans="2:4">
-      <c r="B47" s="120" t="s">
+      <c r="B47" s="118" t="s">
         <v>171</v>
       </c>
-      <c r="C47" s="143"/>
+      <c r="C47" s="119"/>
       <c r="D47" s="24"/>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" s="120" t="s">
+      <c r="B48" s="118" t="s">
         <v>172</v>
       </c>
-      <c r="C48" s="143"/>
+      <c r="C48" s="119"/>
       <c r="D48" s="24"/>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="120" t="s">
+      <c r="B49" s="118" t="s">
         <v>173</v>
       </c>
-      <c r="C49" s="143"/>
+      <c r="C49" s="119"/>
       <c r="D49" s="25"/>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="120" t="s">
+      <c r="B50" s="118" t="s">
         <v>174</v>
       </c>
-      <c r="C50" s="143"/>
+      <c r="C50" s="119"/>
       <c r="D50" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B2:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="B39:D39"/>
@@ -4381,19 +4387,16 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B2:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:C46"/>
   </mergeCells>
   <phoneticPr fontId="41"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4438,11 +4441,11 @@
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="2:24">
-      <c r="B4" s="160"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
     </row>
     <row r="5" spans="2:24" ht="16.25" customHeight="1" thickBot="1">
       <c r="B5" s="20"/>
@@ -4457,16 +4460,16 @@
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="161" t="s">
+      <c r="G6" s="154" t="s">
         <v>109</v>
       </c>
-      <c r="H6" s="162"/>
-      <c r="I6" s="163"/>
-      <c r="V6" s="144" t="s">
+      <c r="H6" s="155"/>
+      <c r="I6" s="156"/>
+      <c r="V6" s="157" t="s">
         <v>110</v>
       </c>
-      <c r="W6" s="145"/>
-      <c r="X6" s="146"/>
+      <c r="W6" s="158"/>
+      <c r="X6" s="159"/>
     </row>
     <row r="7" spans="2:24" ht="15" thickBot="1">
       <c r="B7" s="13"/>
@@ -4481,18 +4484,18 @@
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="147">
+      <c r="G8" s="145">
         <f>AVERAGE(G43:G50)*5</f>
         <v>0</v>
       </c>
-      <c r="H8" s="148"/>
-      <c r="I8" s="149"/>
-      <c r="V8" s="147">
+      <c r="H8" s="146"/>
+      <c r="I8" s="147"/>
+      <c r="V8" s="145">
         <f>AVERAGE(K43:K50)*5</f>
         <v>0</v>
       </c>
-      <c r="W8" s="148"/>
-      <c r="X8" s="149"/>
+      <c r="W8" s="146"/>
+      <c r="X8" s="147"/>
     </row>
     <row r="9" spans="2:24" ht="91.25" customHeight="1">
       <c r="B9" s="21"/>
@@ -4500,12 +4503,12 @@
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="150"/>
-      <c r="H9" s="151"/>
-      <c r="I9" s="152"/>
-      <c r="V9" s="150"/>
-      <c r="W9" s="151"/>
-      <c r="X9" s="152"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="150"/>
+      <c r="V9" s="148"/>
+      <c r="W9" s="149"/>
+      <c r="X9" s="150"/>
     </row>
     <row r="10" spans="2:24" ht="16.5" customHeight="1">
       <c r="B10" s="13"/>
@@ -4513,12 +4516,12 @@
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="150"/>
-      <c r="H10" s="151"/>
-      <c r="I10" s="152"/>
-      <c r="V10" s="150"/>
-      <c r="W10" s="151"/>
-      <c r="X10" s="152"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="149"/>
+      <c r="I10" s="150"/>
+      <c r="V10" s="148"/>
+      <c r="W10" s="149"/>
+      <c r="X10" s="150"/>
     </row>
     <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1">
       <c r="B11" s="13"/>
@@ -4526,19 +4529,19 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="155"/>
-      <c r="V11" s="153"/>
-      <c r="W11" s="154"/>
-      <c r="X11" s="155"/>
+      <c r="G11" s="151"/>
+      <c r="H11" s="152"/>
+      <c r="I11" s="153"/>
+      <c r="V11" s="151"/>
+      <c r="W11" s="152"/>
+      <c r="X11" s="153"/>
     </row>
     <row r="12" spans="2:24" ht="16.25" customHeight="1">
-      <c r="B12" s="156"/>
-      <c r="C12" s="156"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="156"/>
+      <c r="B12" s="160"/>
+      <c r="C12" s="160"/>
+      <c r="D12" s="160"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="160"/>
     </row>
     <row r="13" spans="2:24">
       <c r="B13" s="14"/>
@@ -4562,11 +4565,11 @@
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="2:24" ht="16.25" customHeight="1">
-      <c r="B16" s="156"/>
-      <c r="C16" s="156"/>
-      <c r="D16" s="156"/>
-      <c r="E16" s="156"/>
-      <c r="F16" s="156"/>
+      <c r="B16" s="160"/>
+      <c r="C16" s="160"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="160"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="14"/>
@@ -4619,18 +4622,18 @@
     </row>
     <row r="35" spans="3:11" ht="15.75" customHeight="1"/>
     <row r="41" spans="3:11">
-      <c r="D41" s="157" t="s">
+      <c r="D41" s="161" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="158"/>
-      <c r="F41" s="158"/>
-      <c r="G41" s="159"/>
-      <c r="H41" s="157" t="s">
+      <c r="E41" s="162"/>
+      <c r="F41" s="162"/>
+      <c r="G41" s="163"/>
+      <c r="H41" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="I41" s="158"/>
-      <c r="J41" s="158"/>
-      <c r="K41" s="159"/>
+      <c r="I41" s="162"/>
+      <c r="J41" s="162"/>
+      <c r="K41" s="163"/>
     </row>
     <row r="42" spans="3:11">
       <c r="D42" s="17" t="s">
@@ -4956,15 +4959,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:K41"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G8:I11"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="V6:X6"/>
     <mergeCell ref="V8:X11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:K41"/>
   </mergeCells>
   <phoneticPr fontId="41"/>
   <conditionalFormatting sqref="F14">

--- a/Checklists/Mobile_App_Security_Checklist-Spanish_1.2.xlsx
+++ b/Checklists/Mobile_App_Security_Checklist-Spanish_1.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10310"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sven/PentestTools/OWASP/owasp-mstg/Checklists/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathis_hesse\Documents\Git\owasp-mstg\Checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8578B111-F4C6-BF41-A2EF-F6070499BAA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFD3439-EDE3-461F-8437-FF39E3EC127D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="6" r:id="rId1"/>
@@ -35,9 +35,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="388">
   <si>
     <t>ID</t>
   </si>
@@ -2673,7 +2671,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="15" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2701,6 +2707,19 @@
     <xf numFmtId="1" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2710,27 +2729,6 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="21" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="20" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="22" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2748,69 +2746,69 @@
     </xf>
   </cellXfs>
   <cellStyles count="63">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8"/>
     <cellStyle name="Normal 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -2864,7 +2862,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3066,7 +3064,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="918959216"/>
@@ -3119,7 +3117,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="918956896"/>
@@ -3166,7 +3164,7 @@
               <a:cs typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3196,7 +3194,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3210,7 +3208,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3406,7 +3404,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="920829984"/>
@@ -3459,7 +3457,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="920827664"/>
@@ -3506,7 +3504,7 @@
               <a:cs typeface="Arial"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3536,7 +3534,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4011,14 +4009,14 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="2.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.19921875" customWidth="1"/>
+    <col min="3" max="3" width="13.69921875" customWidth="1"/>
     <col min="4" max="4" width="92.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="8" customHeight="1"/>
+    <row r="1" spans="2:4" ht="7.95" customHeight="1"/>
     <row r="2" spans="2:4">
       <c r="B2" s="128" t="s">
         <v>151</v>
@@ -4056,7 +4054,7 @@
       <c r="C8" s="135"/>
       <c r="D8" s="136"/>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" ht="16.2">
       <c r="B9" s="137" t="s">
         <v>69</v>
       </c>
@@ -4101,7 +4099,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="17">
+    <row r="14" spans="2:4">
       <c r="B14" s="141" t="s">
         <v>189</v>
       </c>
@@ -4114,7 +4112,7 @@
         <v>https://github.com/OWASP/owasp-mstg/blob/1.1.3-excel/Document/</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="40.25" customHeight="1">
+    <row r="15" spans="2:4" ht="40.200000000000003" customHeight="1">
       <c r="B15" s="138" t="s">
         <v>191</v>
       </c>
@@ -4172,7 +4170,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" ht="16.2">
       <c r="B23" s="125"/>
       <c r="C23" s="125"/>
       <c r="D23" s="126"/>
@@ -4219,7 +4217,7 @@
       <c r="C29" s="124"/>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="2:4" ht="16.2">
       <c r="B30" s="125"/>
       <c r="C30" s="125"/>
       <c r="D30" s="126"/>
@@ -4266,7 +4264,7 @@
       <c r="C36" s="124"/>
       <c r="D36" s="12"/>
     </row>
-    <row r="37" spans="2:4">
+    <row r="37" spans="2:4" ht="16.2">
       <c r="B37" s="125"/>
       <c r="C37" s="125"/>
       <c r="D37" s="126"/>
@@ -4278,7 +4276,7 @@
       <c r="C38" s="2"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="2:4">
+    <row r="39" spans="2:4" ht="16.2">
       <c r="B39" s="120"/>
       <c r="C39" s="121"/>
       <c r="D39" s="122"/>
@@ -4318,7 +4316,7 @@
       <c r="C44" s="119"/>
       <c r="D44" s="24"/>
     </row>
-    <row r="45" spans="2:4">
+    <row r="45" spans="2:4" ht="16.2">
       <c r="B45" s="120"/>
       <c r="C45" s="121"/>
       <c r="D45" s="122"/>
@@ -4411,20 +4409,20 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="1.69921875" style="6" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="54.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="54.69921875" style="6" customWidth="1"/>
     <col min="4" max="4" width="6" style="6" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="6"/>
+    <col min="5" max="5" width="4.69921875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="5.69921875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="8.69921875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="15" thickBot="1"/>
-    <row r="2" spans="2:24" ht="15" thickBot="1">
+    <row r="1" spans="2:24" ht="14.4" thickBot="1"/>
+    <row r="2" spans="2:24" ht="15.6" thickBot="1">
       <c r="B2" s="7"/>
       <c r="C2" s="22" t="s">
         <v>68</v>
@@ -4433,82 +4431,82 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="2:24">
+    <row r="3" spans="2:24" ht="15">
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="2:24">
-      <c r="B4" s="144"/>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-    </row>
-    <row r="5" spans="2:24" ht="16.25" customHeight="1" thickBot="1">
+    <row r="4" spans="2:24" ht="15">
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+    </row>
+    <row r="5" spans="2:24" ht="16.2" customHeight="1" thickBot="1">
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
     </row>
-    <row r="6" spans="2:24" ht="19.25" customHeight="1" thickBot="1">
+    <row r="6" spans="2:24" ht="19.2" customHeight="1" thickBot="1">
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="154" t="s">
+      <c r="G6" s="161" t="s">
         <v>109</v>
       </c>
-      <c r="H6" s="155"/>
-      <c r="I6" s="156"/>
-      <c r="V6" s="157" t="s">
+      <c r="H6" s="162"/>
+      <c r="I6" s="163"/>
+      <c r="V6" s="144" t="s">
         <v>110</v>
       </c>
-      <c r="W6" s="158"/>
-      <c r="X6" s="159"/>
-    </row>
-    <row r="7" spans="2:24" ht="15" thickBot="1">
+      <c r="W6" s="145"/>
+      <c r="X6" s="146"/>
+    </row>
+    <row r="7" spans="2:24" ht="15.6" thickBot="1">
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="2:24" ht="16.25" customHeight="1">
+    <row r="8" spans="2:24" ht="16.2" customHeight="1">
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="145">
+      <c r="G8" s="147">
         <f>AVERAGE(G43:G50)*5</f>
         <v>0</v>
       </c>
-      <c r="H8" s="146"/>
-      <c r="I8" s="147"/>
-      <c r="V8" s="145">
+      <c r="H8" s="148"/>
+      <c r="I8" s="149"/>
+      <c r="V8" s="147">
         <f>AVERAGE(K43:K50)*5</f>
         <v>0</v>
       </c>
-      <c r="W8" s="146"/>
-      <c r="X8" s="147"/>
-    </row>
-    <row r="9" spans="2:24" ht="91.25" customHeight="1">
+      <c r="W8" s="148"/>
+      <c r="X8" s="149"/>
+    </row>
+    <row r="9" spans="2:24" ht="91.2" customHeight="1">
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="150"/>
-      <c r="V9" s="148"/>
-      <c r="W9" s="149"/>
-      <c r="X9" s="150"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="151"/>
+      <c r="I9" s="152"/>
+      <c r="V9" s="150"/>
+      <c r="W9" s="151"/>
+      <c r="X9" s="152"/>
     </row>
     <row r="10" spans="2:24" ht="16.5" customHeight="1">
       <c r="B10" s="13"/>
@@ -4516,12 +4514,12 @@
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="150"/>
-      <c r="V10" s="148"/>
-      <c r="W10" s="149"/>
-      <c r="X10" s="150"/>
+      <c r="G10" s="150"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="152"/>
+      <c r="V10" s="150"/>
+      <c r="W10" s="151"/>
+      <c r="X10" s="152"/>
     </row>
     <row r="11" spans="2:24" ht="17.25" customHeight="1" thickBot="1">
       <c r="B11" s="13"/>
@@ -4529,56 +4527,56 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="151"/>
-      <c r="H11" s="152"/>
-      <c r="I11" s="153"/>
-      <c r="V11" s="151"/>
-      <c r="W11" s="152"/>
-      <c r="X11" s="153"/>
-    </row>
-    <row r="12" spans="2:24" ht="16.25" customHeight="1">
-      <c r="B12" s="160"/>
-      <c r="C12" s="160"/>
-      <c r="D12" s="160"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="160"/>
-    </row>
-    <row r="13" spans="2:24">
+      <c r="G11" s="153"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="155"/>
+      <c r="V11" s="153"/>
+      <c r="W11" s="154"/>
+      <c r="X11" s="155"/>
+    </row>
+    <row r="12" spans="2:24" ht="16.2" customHeight="1">
+      <c r="B12" s="156"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+    </row>
+    <row r="13" spans="2:24" ht="14.4">
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
     </row>
-    <row r="14" spans="2:24">
+    <row r="14" spans="2:24" ht="14.4">
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="2:24">
+    <row r="15" spans="2:24" ht="15">
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
     </row>
-    <row r="16" spans="2:24" ht="16.25" customHeight="1">
-      <c r="B16" s="160"/>
-      <c r="C16" s="160"/>
-      <c r="D16" s="160"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="160"/>
-    </row>
-    <row r="17" spans="2:6">
+    <row r="16" spans="2:24" ht="16.2" customHeight="1">
+      <c r="B16" s="156"/>
+      <c r="C16" s="156"/>
+      <c r="D16" s="156"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="156"/>
+    </row>
+    <row r="17" spans="2:6" ht="14.4">
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" ht="14.4">
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
@@ -4621,19 +4619,19 @@
       <c r="C32" s="18"/>
     </row>
     <row r="35" spans="3:11" ht="15.75" customHeight="1"/>
-    <row r="41" spans="3:11">
-      <c r="D41" s="161" t="s">
+    <row r="41" spans="3:11" ht="14.4">
+      <c r="D41" s="157" t="s">
         <v>77</v>
       </c>
-      <c r="E41" s="162"/>
-      <c r="F41" s="162"/>
-      <c r="G41" s="163"/>
-      <c r="H41" s="161" t="s">
+      <c r="E41" s="158"/>
+      <c r="F41" s="158"/>
+      <c r="G41" s="159"/>
+      <c r="H41" s="157" t="s">
         <v>78</v>
       </c>
-      <c r="I41" s="162"/>
-      <c r="J41" s="162"/>
-      <c r="K41" s="163"/>
+      <c r="I41" s="158"/>
+      <c r="J41" s="158"/>
+      <c r="K41" s="159"/>
     </row>
     <row r="42" spans="3:11">
       <c r="D42" s="17" t="s">
@@ -4661,7 +4659,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="3:11">
+    <row r="43" spans="3:11" ht="14.4">
       <c r="C43" s="11" t="s">
         <v>101</v>
       </c>
@@ -4698,7 +4696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:11">
+    <row r="44" spans="3:11" ht="14.4">
       <c r="C44" s="11" t="s">
         <v>102</v>
       </c>
@@ -4735,7 +4733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:11">
+    <row r="45" spans="3:11" ht="14.4">
       <c r="C45" s="11" t="s">
         <v>103</v>
       </c>
@@ -4772,7 +4770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:11">
+    <row r="46" spans="3:11" ht="14.4">
       <c r="C46" s="11" t="s">
         <v>104</v>
       </c>
@@ -4809,7 +4807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:11">
+    <row r="47" spans="3:11" ht="14.4">
       <c r="C47" s="11" t="s">
         <v>105</v>
       </c>
@@ -4846,7 +4844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:11">
+    <row r="48" spans="3:11" ht="14.4">
       <c r="C48" s="11" t="s">
         <v>106</v>
       </c>
@@ -4883,7 +4881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:11">
+    <row r="49" spans="3:11" ht="14.4">
       <c r="C49" s="11" t="s">
         <v>107</v>
       </c>
@@ -4920,7 +4918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:11">
+    <row r="50" spans="3:11" ht="14.4">
       <c r="C50" s="11" t="s">
         <v>108</v>
       </c>
@@ -4959,15 +4957,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="H41:K41"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="G8:I11"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="V6:X6"/>
     <mergeCell ref="V8:X11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="H41:K41"/>
   </mergeCells>
   <phoneticPr fontId="41"/>
   <conditionalFormatting sqref="F14">
@@ -5008,24 +5006,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:L94"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="45" customWidth="1"/>
+    <col min="1" max="1" width="1.69921875" style="45" customWidth="1"/>
     <col min="2" max="2" width="8" style="45" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="96.6640625" style="88" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" style="45" customWidth="1"/>
+    <col min="4" max="4" width="96.69921875" style="88" customWidth="1"/>
     <col min="5" max="7" width="11" style="45"/>
     <col min="8" max="8" width="101.5" style="45" customWidth="1"/>
     <col min="9" max="9" width="83.5" style="45" customWidth="1"/>
-    <col min="10" max="10" width="71.1640625" style="45" customWidth="1"/>
-    <col min="11" max="11" width="30.6640625" style="45" customWidth="1"/>
-    <col min="12" max="13" width="10.6640625" style="45" customWidth="1"/>
+    <col min="10" max="10" width="71.19921875" style="45" customWidth="1"/>
+    <col min="11" max="11" width="30.69921875" style="45" customWidth="1"/>
+    <col min="12" max="13" width="10.69921875" style="45" customWidth="1"/>
     <col min="14" max="16384" width="11" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="19">
+    <row r="1" spans="2:11" ht="18">
       <c r="B1" s="164" t="s">
         <v>148</v>
       </c>
@@ -5214,7 +5214,7 @@
       <c r="J8" s="59"/>
       <c r="K8" s="91"/>
     </row>
-    <row r="9" spans="2:11" ht="32">
+    <row r="9" spans="2:11" ht="28.8">
       <c r="B9" s="57" t="s">
         <v>214</v>
       </c>
@@ -5242,7 +5242,7 @@
       <c r="J9" s="59"/>
       <c r="K9" s="91"/>
     </row>
-    <row r="10" spans="2:11" ht="32">
+    <row r="10" spans="2:11" ht="28.8">
       <c r="B10" s="57" t="s">
         <v>215</v>
       </c>
@@ -5270,7 +5270,7 @@
       <c r="J10" s="59"/>
       <c r="K10" s="91"/>
     </row>
-    <row r="11" spans="2:11" ht="17">
+    <row r="11" spans="2:11">
       <c r="B11" s="57" t="s">
         <v>4</v>
       </c>
@@ -5307,7 +5307,7 @@
       </c>
       <c r="K11" s="91"/>
     </row>
-    <row r="12" spans="2:11" ht="32">
+    <row r="12" spans="2:11" ht="28.8">
       <c r="B12" s="57" t="s">
         <v>216</v>
       </c>
@@ -5363,7 +5363,7 @@
       <c r="J13" s="59"/>
       <c r="K13" s="91"/>
     </row>
-    <row r="14" spans="2:11" ht="32">
+    <row r="14" spans="2:11" ht="28.8">
       <c r="B14" s="57" t="s">
         <v>5</v>
       </c>
@@ -5451,7 +5451,7 @@
       <c r="J17" s="69"/>
       <c r="K17" s="70"/>
     </row>
-    <row r="18" spans="2:11" ht="32">
+    <row r="18" spans="2:11" ht="28.8">
       <c r="B18" s="71" t="s">
         <v>7</v>
       </c>
@@ -5479,7 +5479,7 @@
       <c r="J18" s="59"/>
       <c r="K18" s="91"/>
     </row>
-    <row r="19" spans="2:11" ht="32">
+    <row r="19" spans="2:11" ht="28.8">
       <c r="B19" s="71" t="s">
         <v>39</v>
       </c>
@@ -5529,7 +5529,7 @@
       <c r="J20" s="59"/>
       <c r="K20" s="91"/>
     </row>
-    <row r="21" spans="2:11" ht="17">
+    <row r="21" spans="2:11">
       <c r="B21" s="71" t="s">
         <v>8</v>
       </c>
@@ -5554,7 +5554,7 @@
       <c r="J21" s="59"/>
       <c r="K21" s="91"/>
     </row>
-    <row r="22" spans="2:11" ht="17">
+    <row r="22" spans="2:11">
       <c r="B22" s="71" t="s">
         <v>41</v>
       </c>
@@ -5579,7 +5579,7 @@
       <c r="J22" s="59"/>
       <c r="K22" s="91"/>
     </row>
-    <row r="23" spans="2:11" ht="17">
+    <row r="23" spans="2:11">
       <c r="B23" s="71" t="s">
         <v>9</v>
       </c>
@@ -5604,7 +5604,7 @@
       <c r="J23" s="59"/>
       <c r="K23" s="91"/>
     </row>
-    <row r="24" spans="2:11" ht="32">
+    <row r="24" spans="2:11" ht="28.8">
       <c r="B24" s="71" t="s">
         <v>10</v>
       </c>
@@ -5704,7 +5704,7 @@
       <c r="J27" s="59"/>
       <c r="K27" s="91"/>
     </row>
-    <row r="28" spans="2:11" ht="32">
+    <row r="28" spans="2:11" ht="28.8">
       <c r="B28" s="71" t="s">
         <v>43</v>
       </c>
@@ -5732,7 +5732,7 @@
       <c r="J28" s="59"/>
       <c r="K28" s="91"/>
     </row>
-    <row r="29" spans="2:11" ht="32">
+    <row r="29" spans="2:11" ht="28.8">
       <c r="B29" s="71" t="s">
         <v>13</v>
       </c>
@@ -5757,7 +5757,7 @@
       <c r="J29" s="59"/>
       <c r="K29" s="91"/>
     </row>
-    <row r="30" spans="2:11" ht="32">
+    <row r="30" spans="2:11" ht="28.8">
       <c r="B30" s="71" t="s">
         <v>309</v>
       </c>
@@ -5779,7 +5779,7 @@
       <c r="J30" s="59"/>
       <c r="K30" s="91"/>
     </row>
-    <row r="31" spans="2:11" ht="32">
+    <row r="31" spans="2:11" ht="28.8">
       <c r="B31" s="71" t="s">
         <v>310</v>
       </c>
@@ -5839,7 +5839,7 @@
       <c r="J33" s="69"/>
       <c r="K33" s="70"/>
     </row>
-    <row r="34" spans="2:12" ht="32">
+    <row r="34" spans="2:12" ht="28.8">
       <c r="B34" s="71" t="s">
         <v>15</v>
       </c>
@@ -5867,7 +5867,7 @@
       <c r="J34" s="59"/>
       <c r="K34" s="91"/>
     </row>
-    <row r="35" spans="2:12" ht="34">
+    <row r="35" spans="2:12" ht="31.2">
       <c r="B35" s="71" t="s">
         <v>16</v>
       </c>
@@ -5895,7 +5895,7 @@
       <c r="J35" s="59"/>
       <c r="K35" s="91"/>
     </row>
-    <row r="36" spans="2:12" ht="34">
+    <row r="36" spans="2:12" ht="31.2">
       <c r="B36" s="71" t="s">
         <v>17</v>
       </c>
@@ -5923,7 +5923,7 @@
       <c r="J36" s="59"/>
       <c r="K36" s="91"/>
     </row>
-    <row r="37" spans="2:12" ht="29" customHeight="1">
+    <row r="37" spans="2:12" ht="28.95" customHeight="1">
       <c r="B37" s="71" t="s">
         <v>18</v>
       </c>
@@ -6017,7 +6017,7 @@
       <c r="J40" s="69"/>
       <c r="K40" s="70"/>
     </row>
-    <row r="41" spans="2:12" ht="32">
+    <row r="41" spans="2:12" ht="28.8">
       <c r="B41" s="57" t="s">
         <v>22</v>
       </c>
@@ -6048,7 +6048,7 @@
       </c>
       <c r="K41" s="91"/>
     </row>
-    <row r="42" spans="2:12" ht="32">
+    <row r="42" spans="2:12" ht="28.8">
       <c r="B42" s="57" t="s">
         <v>44</v>
       </c>
@@ -6073,7 +6073,7 @@
       <c r="J42" s="59"/>
       <c r="K42" s="91"/>
     </row>
-    <row r="43" spans="2:12" ht="32">
+    <row r="43" spans="2:12" ht="28.8">
       <c r="B43" s="57" t="s">
         <v>45</v>
       </c>
@@ -6112,8 +6112,12 @@
       <c r="D44" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="E44" s="60"/>
-      <c r="F44" s="61"/>
+      <c r="E44" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="61" t="s">
+        <v>3</v>
+      </c>
       <c r="G44" s="90"/>
       <c r="H44" s="74" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-user-logout-mstg-auth-4"),"Testing User Logout (MSTG-AUTH-4)")</f>
@@ -6149,7 +6153,7 @@
       <c r="J45" s="59"/>
       <c r="K45" s="91"/>
     </row>
-    <row r="46" spans="2:12" ht="32" customHeight="1">
+    <row r="46" spans="2:12" ht="31.95" customHeight="1">
       <c r="B46" s="57" t="s">
         <v>46</v>
       </c>
@@ -6202,7 +6206,7 @@
       <c r="J47" s="75"/>
       <c r="K47" s="91"/>
     </row>
-    <row r="48" spans="2:12" ht="32">
+    <row r="48" spans="2:12" ht="28.8">
       <c r="B48" s="57" t="s">
         <v>25</v>
       </c>
@@ -6277,7 +6281,7 @@
       <c r="J50" s="59"/>
       <c r="K50" s="91"/>
     </row>
-    <row r="51" spans="2:11" ht="48">
+    <row r="51" spans="2:11" ht="28.8">
       <c r="B51" s="57" t="s">
         <v>93</v>
       </c>
@@ -6365,7 +6369,7 @@
       <c r="J54" s="59"/>
       <c r="K54" s="91"/>
     </row>
-    <row r="55" spans="2:11" ht="32">
+    <row r="55" spans="2:11" ht="28.8">
       <c r="B55" s="57" t="s">
         <v>48</v>
       </c>
@@ -6390,7 +6394,7 @@
       <c r="J55" s="59"/>
       <c r="K55" s="91"/>
     </row>
-    <row r="56" spans="2:11" ht="32">
+    <row r="56" spans="2:11" ht="28.8">
       <c r="B56" s="57" t="s">
         <v>30</v>
       </c>
@@ -6415,7 +6419,7 @@
       <c r="J56" s="63"/>
       <c r="K56" s="91"/>
     </row>
-    <row r="57" spans="2:11" ht="48">
+    <row r="57" spans="2:11" ht="43.2">
       <c r="B57" s="57" t="s">
         <v>49</v>
       </c>
@@ -6443,7 +6447,7 @@
       <c r="J57" s="59"/>
       <c r="K57" s="91"/>
     </row>
-    <row r="58" spans="2:11" ht="32">
+    <row r="58" spans="2:11" ht="28.8">
       <c r="B58" s="57" t="s">
         <v>31</v>
       </c>
@@ -6534,7 +6538,7 @@
       <c r="J61" s="59"/>
       <c r="K61" s="91"/>
     </row>
-    <row r="62" spans="2:11" ht="32">
+    <row r="62" spans="2:11" ht="28.8">
       <c r="B62" s="57" t="s">
         <v>51</v>
       </c>
@@ -6562,7 +6566,7 @@
       <c r="J62" s="59"/>
       <c r="K62" s="91"/>
     </row>
-    <row r="63" spans="2:11" ht="32">
+    <row r="63" spans="2:11" ht="28.8">
       <c r="B63" s="57" t="s">
         <v>52</v>
       </c>
@@ -6587,7 +6591,7 @@
       <c r="J63" s="59"/>
       <c r="K63" s="91"/>
     </row>
-    <row r="64" spans="2:11" ht="32">
+    <row r="64" spans="2:11" ht="28.8">
       <c r="B64" s="57" t="s">
         <v>53</v>
       </c>
@@ -6637,7 +6641,7 @@
       <c r="J65" s="59"/>
       <c r="K65" s="91"/>
     </row>
-    <row r="66" spans="2:11" ht="32">
+    <row r="66" spans="2:11" ht="28.8">
       <c r="B66" s="57" t="s">
         <v>55</v>
       </c>
@@ -6662,7 +6666,7 @@
       <c r="J66" s="59"/>
       <c r="K66" s="91"/>
     </row>
-    <row r="67" spans="2:11" ht="32" customHeight="1">
+    <row r="67" spans="2:11" ht="31.95" customHeight="1">
       <c r="B67" s="57" t="s">
         <v>219</v>
       </c>
@@ -6734,7 +6738,7 @@
       <c r="J69" s="59"/>
       <c r="K69" s="91"/>
     </row>
-    <row r="70" spans="2:11" ht="32">
+    <row r="70" spans="2:11" ht="28.8">
       <c r="B70" s="57" t="s">
         <v>341</v>
       </c>
@@ -6869,7 +6873,7 @@
       <c r="J75" s="59"/>
       <c r="K75" s="91"/>
     </row>
-    <row r="76" spans="2:11" ht="32">
+    <row r="76" spans="2:11" ht="28.8">
       <c r="B76" s="57" t="s">
         <v>58</v>
       </c>
@@ -6894,7 +6898,7 @@
       <c r="J76" s="59"/>
       <c r="K76" s="91"/>
     </row>
-    <row r="77" spans="2:11" ht="17">
+    <row r="77" spans="2:11">
       <c r="B77" s="57" t="s">
         <v>59</v>
       </c>
@@ -6994,7 +6998,7 @@
       <c r="J80" s="59"/>
       <c r="K80" s="91"/>
     </row>
-    <row r="81" spans="2:11" ht="32">
+    <row r="81" spans="2:11" ht="28.8">
       <c r="B81" s="57" t="s">
         <v>95</v>
       </c>
@@ -7219,19 +7223,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="45" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" style="45" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="93.1640625" style="45" customWidth="1"/>
+    <col min="1" max="1" width="1.69921875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="7.19921875" style="45" customWidth="1"/>
+    <col min="3" max="3" width="18.69921875" style="45" customWidth="1"/>
+    <col min="4" max="4" width="93.19921875" style="45" customWidth="1"/>
     <col min="5" max="6" width="11" style="45"/>
-    <col min="7" max="7" width="69.1640625" style="45" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="45" customWidth="1"/>
+    <col min="7" max="7" width="69.19921875" style="45" customWidth="1"/>
+    <col min="8" max="8" width="30.69921875" style="45" customWidth="1"/>
     <col min="9" max="16384" width="11" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="19">
+    <row r="1" spans="2:8" ht="18">
       <c r="B1" s="98" t="s">
         <v>147</v>
       </c>
@@ -7285,7 +7289,7 @@
       <c r="G4" s="69"/>
       <c r="H4" s="70"/>
     </row>
-    <row r="5" spans="2:8" ht="32">
+    <row r="5" spans="2:8" ht="28.8">
       <c r="B5" s="57" t="s">
         <v>201</v>
       </c>
@@ -7307,7 +7311,7 @@
       </c>
       <c r="H5" s="91"/>
     </row>
-    <row r="6" spans="2:8" ht="32" customHeight="1">
+    <row r="6" spans="2:8" ht="31.95" customHeight="1">
       <c r="B6" s="57" t="s">
         <v>202</v>
       </c>
@@ -7417,7 +7421,7 @@
       </c>
       <c r="H10" s="91"/>
     </row>
-    <row r="11" spans="2:8" ht="32">
+    <row r="11" spans="2:8" ht="28.8">
       <c r="B11" s="57" t="s">
         <v>207</v>
       </c>
@@ -7438,7 +7442,7 @@
       </c>
       <c r="H11" s="91"/>
     </row>
-    <row r="12" spans="2:8" ht="32" customHeight="1">
+    <row r="12" spans="2:8" ht="31.95" customHeight="1">
       <c r="B12" s="57" t="s">
         <v>208</v>
       </c>
@@ -7492,7 +7496,7 @@
       <c r="G14" s="69"/>
       <c r="H14" s="70"/>
     </row>
-    <row r="15" spans="2:8" ht="32">
+    <row r="15" spans="2:8" ht="28.8">
       <c r="B15" s="57" t="s">
         <v>60</v>
       </c>
@@ -7525,7 +7529,7 @@
       <c r="G16" s="69"/>
       <c r="H16" s="70"/>
     </row>
-    <row r="17" spans="2:8" ht="48">
+    <row r="17" spans="2:8" ht="43.2">
       <c r="B17" s="57" t="s">
         <v>209</v>
       </c>
@@ -7547,7 +7551,7 @@
       </c>
       <c r="H17" s="91"/>
     </row>
-    <row r="18" spans="2:8" ht="64">
+    <row r="18" spans="2:8" ht="57.6">
       <c r="B18" s="57" t="s">
         <v>210</v>
       </c>
@@ -7579,7 +7583,7 @@
       <c r="G19" s="69"/>
       <c r="H19" s="70"/>
     </row>
-    <row r="20" spans="2:8" ht="48">
+    <row r="20" spans="2:8" ht="43.2">
       <c r="B20" s="57" t="s">
         <v>364</v>
       </c>
@@ -7638,7 +7642,7 @@
       <c r="G24" s="81"/>
       <c r="H24" s="81"/>
     </row>
-    <row r="25" spans="2:8" ht="32">
+    <row r="25" spans="2:8">
       <c r="B25" s="84" t="s">
         <v>181</v>
       </c>
@@ -7733,23 +7737,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:L94"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="98" zoomScalePageLayoutView="130" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="98" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="45" customWidth="1"/>
+    <col min="1" max="1" width="1.69921875" style="45" customWidth="1"/>
     <col min="2" max="2" width="8" style="45" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="97.1640625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" style="45" customWidth="1"/>
+    <col min="4" max="4" width="97.19921875" style="45" customWidth="1"/>
     <col min="5" max="7" width="11" style="45"/>
     <col min="8" max="8" width="91.5" style="45" customWidth="1"/>
-    <col min="9" max="10" width="75.33203125" style="45" customWidth="1"/>
-    <col min="11" max="11" width="30.6640625" style="45" customWidth="1"/>
-    <col min="12" max="13" width="10.6640625" style="45" customWidth="1"/>
+    <col min="9" max="10" width="75.296875" style="45" customWidth="1"/>
+    <col min="11" max="11" width="30.69921875" style="45" customWidth="1"/>
+    <col min="12" max="13" width="10.69921875" style="45" customWidth="1"/>
     <col min="14" max="16384" width="11" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="19">
+    <row r="1" spans="2:11" ht="18">
       <c r="B1" s="99" t="s">
         <v>149</v>
       </c>
@@ -7934,7 +7940,7 @@
       <c r="J8" s="59"/>
       <c r="K8" s="100"/>
     </row>
-    <row r="9" spans="2:11" ht="32">
+    <row r="9" spans="2:11" ht="28.8">
       <c r="B9" s="57" t="s">
         <v>214</v>
       </c>
@@ -7962,7 +7968,7 @@
       <c r="J9" s="59"/>
       <c r="K9" s="100"/>
     </row>
-    <row r="10" spans="2:11" ht="32">
+    <row r="10" spans="2:11" ht="28.8">
       <c r="B10" s="57" t="s">
         <v>215</v>
       </c>
@@ -7990,7 +7996,7 @@
       <c r="J10" s="59"/>
       <c r="K10" s="100"/>
     </row>
-    <row r="11" spans="2:11" ht="17">
+    <row r="11" spans="2:11">
       <c r="B11" s="57" t="s">
         <v>4</v>
       </c>
@@ -8024,7 +8030,7 @@
       <c r="J11" s="63"/>
       <c r="K11" s="100"/>
     </row>
-    <row r="12" spans="2:11" ht="32">
+    <row r="12" spans="2:11" ht="28.8">
       <c r="B12" s="57" t="s">
         <v>216</v>
       </c>
@@ -8080,7 +8086,7 @@
       <c r="J13" s="59"/>
       <c r="K13" s="100"/>
     </row>
-    <row r="14" spans="2:11" ht="32">
+    <row r="14" spans="2:11" ht="28.8">
       <c r="B14" s="57" t="s">
         <v>5</v>
       </c>
@@ -8168,7 +8174,7 @@
       <c r="J17" s="69"/>
       <c r="K17" s="70"/>
     </row>
-    <row r="18" spans="2:11" ht="32">
+    <row r="18" spans="2:11" ht="28.8">
       <c r="B18" s="71" t="s">
         <v>7</v>
       </c>
@@ -8193,7 +8199,7 @@
       <c r="J18" s="59"/>
       <c r="K18" s="100"/>
     </row>
-    <row r="19" spans="2:11" ht="32">
+    <row r="19" spans="2:11" ht="28.8">
       <c r="B19" s="71" t="s">
         <v>39</v>
       </c>
@@ -8293,7 +8299,7 @@
       <c r="J22" s="59"/>
       <c r="K22" s="100"/>
     </row>
-    <row r="23" spans="2:11" ht="17">
+    <row r="23" spans="2:11">
       <c r="B23" s="71" t="s">
         <v>9</v>
       </c>
@@ -8318,7 +8324,7 @@
       <c r="J23" s="59"/>
       <c r="K23" s="100"/>
     </row>
-    <row r="24" spans="2:11" ht="32">
+    <row r="24" spans="2:11" ht="28.8">
       <c r="B24" s="71" t="s">
         <v>10</v>
       </c>
@@ -8418,7 +8424,7 @@
       <c r="J27" s="59"/>
       <c r="K27" s="100"/>
     </row>
-    <row r="28" spans="2:11" ht="32">
+    <row r="28" spans="2:11" ht="28.8">
       <c r="B28" s="71" t="s">
         <v>43</v>
       </c>
@@ -8443,7 +8449,7 @@
       <c r="J28" s="59"/>
       <c r="K28" s="100"/>
     </row>
-    <row r="29" spans="2:11" ht="32">
+    <row r="29" spans="2:11" ht="28.8">
       <c r="B29" s="71" t="s">
         <v>13</v>
       </c>
@@ -8468,7 +8474,7 @@
       <c r="J29" s="59"/>
       <c r="K29" s="100"/>
     </row>
-    <row r="30" spans="2:11" ht="32">
+    <row r="30" spans="2:11" ht="28.8">
       <c r="B30" s="71" t="s">
         <v>309</v>
       </c>
@@ -8490,7 +8496,7 @@
       <c r="J30" s="59"/>
       <c r="K30" s="100"/>
     </row>
-    <row r="31" spans="2:11" ht="32">
+    <row r="31" spans="2:11" ht="28.8">
       <c r="B31" s="71" t="s">
         <v>310</v>
       </c>
@@ -8550,7 +8556,7 @@
       <c r="J33" s="69"/>
       <c r="K33" s="70"/>
     </row>
-    <row r="34" spans="2:12" ht="32">
+    <row r="34" spans="2:12" ht="28.8">
       <c r="B34" s="71" t="s">
         <v>15</v>
       </c>
@@ -8575,7 +8581,7 @@
       <c r="J34" s="59"/>
       <c r="K34" s="100"/>
     </row>
-    <row r="35" spans="2:12" ht="17">
+    <row r="35" spans="2:12">
       <c r="B35" s="71" t="s">
         <v>16</v>
       </c>
@@ -8600,7 +8606,7 @@
       <c r="J35" s="59"/>
       <c r="K35" s="100"/>
     </row>
-    <row r="36" spans="2:12" ht="32">
+    <row r="36" spans="2:12" ht="28.8">
       <c r="B36" s="71" t="s">
         <v>17</v>
       </c>
@@ -8625,7 +8631,7 @@
       <c r="J36" s="59"/>
       <c r="K36" s="100"/>
     </row>
-    <row r="37" spans="2:12" ht="32">
+    <row r="37" spans="2:12">
       <c r="B37" s="71" t="s">
         <v>18</v>
       </c>
@@ -8716,7 +8722,7 @@
       <c r="J40" s="69"/>
       <c r="K40" s="70"/>
     </row>
-    <row r="41" spans="2:12" ht="32">
+    <row r="41" spans="2:12" ht="28.8">
       <c r="B41" s="57" t="s">
         <v>22</v>
       </c>
@@ -8744,7 +8750,7 @@
       <c r="J41" s="74"/>
       <c r="K41" s="100"/>
     </row>
-    <row r="42" spans="2:12" ht="32">
+    <row r="42" spans="2:12" ht="28.8">
       <c r="B42" s="57" t="s">
         <v>44</v>
       </c>
@@ -8769,7 +8775,7 @@
       <c r="J42" s="59"/>
       <c r="K42" s="100"/>
     </row>
-    <row r="43" spans="2:12" ht="32">
+    <row r="43" spans="2:12" ht="28.8">
       <c r="B43" s="57" t="s">
         <v>45</v>
       </c>
@@ -8807,8 +8813,12 @@
       <c r="D44" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="E44" s="60"/>
-      <c r="F44" s="61"/>
+      <c r="E44" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="61" t="s">
+        <v>3</v>
+      </c>
       <c r="G44" s="90"/>
       <c r="H44" s="74" t="str">
         <f>HYPERLINK(CONCATENATE(BASE_URL,"0x04e-Testing-Authentication-and-Session-Management.md#testing-user-logout-mstg-auth-4"),"Testing User Logout (MSTG-AUTH-4)")</f>
@@ -8898,7 +8908,7 @@
       <c r="J47" s="75"/>
       <c r="K47" s="100"/>
     </row>
-    <row r="48" spans="2:12" ht="32">
+    <row r="48" spans="2:12" ht="28.8">
       <c r="B48" s="57" t="s">
         <v>25</v>
       </c>
@@ -8923,7 +8933,7 @@
       <c r="J48" s="74"/>
       <c r="K48" s="100"/>
     </row>
-    <row r="49" spans="2:11" ht="17">
+    <row r="49" spans="2:11">
       <c r="B49" s="57" t="s">
         <v>26</v>
       </c>
@@ -8948,7 +8958,7 @@
       <c r="J49" s="59"/>
       <c r="K49" s="100"/>
     </row>
-    <row r="50" spans="2:11" ht="17">
+    <row r="50" spans="2:11">
       <c r="B50" s="57" t="s">
         <v>27</v>
       </c>
@@ -8973,7 +8983,7 @@
       <c r="J50" s="59"/>
       <c r="K50" s="100"/>
     </row>
-    <row r="51" spans="2:11" ht="48">
+    <row r="51" spans="2:11" ht="28.8">
       <c r="B51" s="57" t="s">
         <v>93</v>
       </c>
@@ -9039,7 +9049,7 @@
       <c r="J53" s="69"/>
       <c r="K53" s="70"/>
     </row>
-    <row r="54" spans="2:11" ht="17">
+    <row r="54" spans="2:11">
       <c r="B54" s="57" t="s">
         <v>29</v>
       </c>
@@ -9064,7 +9074,7 @@
       <c r="J54" s="63"/>
       <c r="K54" s="100"/>
     </row>
-    <row r="55" spans="2:11" ht="32">
+    <row r="55" spans="2:11" ht="28.8">
       <c r="B55" s="57" t="s">
         <v>48</v>
       </c>
@@ -9092,7 +9102,7 @@
       <c r="J55" s="63"/>
       <c r="K55" s="100"/>
     </row>
-    <row r="56" spans="2:11" ht="32">
+    <row r="56" spans="2:11" ht="28.8">
       <c r="B56" s="57" t="s">
         <v>30</v>
       </c>
@@ -9117,7 +9127,7 @@
       <c r="J56" s="59"/>
       <c r="K56" s="100"/>
     </row>
-    <row r="57" spans="2:11" ht="48">
+    <row r="57" spans="2:11" ht="43.2">
       <c r="B57" s="57" t="s">
         <v>49</v>
       </c>
@@ -9142,7 +9152,7 @@
       <c r="J57" s="59"/>
       <c r="K57" s="100"/>
     </row>
-    <row r="58" spans="2:11" ht="32">
+    <row r="58" spans="2:11" ht="28.8">
       <c r="B58" s="57" t="s">
         <v>31</v>
       </c>
@@ -9236,7 +9246,7 @@
       <c r="J61" s="59"/>
       <c r="K61" s="100"/>
     </row>
-    <row r="62" spans="2:11" ht="32">
+    <row r="62" spans="2:11" ht="28.8">
       <c r="B62" s="57" t="s">
         <v>51</v>
       </c>
@@ -9261,7 +9271,7 @@
       <c r="J62" s="59"/>
       <c r="K62" s="100"/>
     </row>
-    <row r="63" spans="2:11" ht="32">
+    <row r="63" spans="2:11" ht="28.8">
       <c r="B63" s="57" t="s">
         <v>52</v>
       </c>
@@ -9286,7 +9296,7 @@
       <c r="J63" s="59"/>
       <c r="K63" s="100"/>
     </row>
-    <row r="64" spans="2:11" ht="32">
+    <row r="64" spans="2:11" ht="28.8">
       <c r="B64" s="57" t="s">
         <v>53</v>
       </c>
@@ -9339,7 +9349,7 @@
       <c r="J65" s="59"/>
       <c r="K65" s="100"/>
     </row>
-    <row r="66" spans="2:11" ht="32">
+    <row r="66" spans="2:11" ht="28.8">
       <c r="B66" s="57" t="s">
         <v>55</v>
       </c>
@@ -9364,7 +9374,7 @@
       <c r="J66" s="59"/>
       <c r="K66" s="100"/>
     </row>
-    <row r="67" spans="2:11" ht="32">
+    <row r="67" spans="2:11" ht="28.8">
       <c r="B67" s="57" t="s">
         <v>219</v>
       </c>
@@ -9436,7 +9446,7 @@
       <c r="J69" s="59"/>
       <c r="K69" s="100"/>
     </row>
-    <row r="70" spans="2:11" ht="32">
+    <row r="70" spans="2:11" ht="28.8">
       <c r="B70" s="57" t="s">
         <v>341</v>
       </c>
@@ -9458,7 +9468,7 @@
       <c r="J70" s="59"/>
       <c r="K70" s="100"/>
     </row>
-    <row r="71" spans="2:11" ht="32">
+    <row r="71" spans="2:11">
       <c r="B71" s="57" t="s">
         <v>342</v>
       </c>
@@ -9521,7 +9531,7 @@
       <c r="J73" s="59"/>
       <c r="K73" s="100"/>
     </row>
-    <row r="74" spans="2:11" ht="32">
+    <row r="74" spans="2:11">
       <c r="B74" s="57" t="s">
         <v>34</v>
       </c>
@@ -9571,7 +9581,7 @@
       <c r="J75" s="59"/>
       <c r="K75" s="100"/>
     </row>
-    <row r="76" spans="2:11" ht="32">
+    <row r="76" spans="2:11" ht="28.8">
       <c r="B76" s="57" t="s">
         <v>58</v>
       </c>
@@ -9596,7 +9606,7 @@
       <c r="J76" s="59"/>
       <c r="K76" s="100"/>
     </row>
-    <row r="77" spans="2:11" ht="17">
+    <row r="77" spans="2:11">
       <c r="B77" s="57" t="s">
         <v>59</v>
       </c>
@@ -9696,7 +9706,7 @@
       <c r="J80" s="59"/>
       <c r="K80" s="100"/>
     </row>
-    <row r="81" spans="2:11" ht="32">
+    <row r="81" spans="2:11" ht="28.8">
       <c r="B81" s="57" t="s">
         <v>95</v>
       </c>
@@ -9927,19 +9937,19 @@
       <selection activeCell="G8" sqref="G8:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="45" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" style="45" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" style="45" customWidth="1"/>
-    <col min="4" max="4" width="99.6640625" style="45" customWidth="1"/>
+    <col min="1" max="1" width="1.69921875" style="45" customWidth="1"/>
+    <col min="2" max="2" width="7.19921875" style="45" customWidth="1"/>
+    <col min="3" max="3" width="17.796875" style="45" customWidth="1"/>
+    <col min="4" max="4" width="99.69921875" style="45" customWidth="1"/>
     <col min="5" max="6" width="11" style="45"/>
-    <col min="7" max="7" width="61.83203125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="45" customWidth="1"/>
+    <col min="7" max="7" width="61.796875" style="45" customWidth="1"/>
+    <col min="8" max="8" width="30.69921875" style="45" customWidth="1"/>
     <col min="9" max="16384" width="11" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="19">
+    <row r="1" spans="2:8" ht="18">
       <c r="B1" s="98" t="s">
         <v>150</v>
       </c>
@@ -9987,7 +9997,7 @@
       <c r="G4" s="69"/>
       <c r="H4" s="70"/>
     </row>
-    <row r="5" spans="2:8" ht="32">
+    <row r="5" spans="2:8" ht="28.8">
       <c r="B5" s="57" t="s">
         <v>201</v>
       </c>
@@ -10114,7 +10124,7 @@
       <c r="G10" s="115"/>
       <c r="H10" s="91"/>
     </row>
-    <row r="11" spans="2:8" ht="32">
+    <row r="11" spans="2:8" ht="28.8">
       <c r="B11" s="57" t="s">
         <v>207</v>
       </c>
@@ -10135,7 +10145,7 @@
       </c>
       <c r="H11" s="91"/>
     </row>
-    <row r="12" spans="2:8" ht="17">
+    <row r="12" spans="2:8">
       <c r="B12" s="57" t="s">
         <v>208</v>
       </c>
@@ -10188,7 +10198,7 @@
       <c r="G14" s="69"/>
       <c r="H14" s="70"/>
     </row>
-    <row r="15" spans="2:8" ht="32">
+    <row r="15" spans="2:8" ht="28.8">
       <c r="B15" s="57" t="s">
         <v>60</v>
       </c>
@@ -10221,7 +10231,7 @@
       <c r="G16" s="69"/>
       <c r="H16" s="70"/>
     </row>
-    <row r="17" spans="2:8" ht="48">
+    <row r="17" spans="2:8" ht="43.2">
       <c r="B17" s="57" t="s">
         <v>209</v>
       </c>
@@ -10243,7 +10253,7 @@
       </c>
       <c r="H17" s="91"/>
     </row>
-    <row r="18" spans="2:8" ht="64">
+    <row r="18" spans="2:8" ht="57.6">
       <c r="B18" s="57" t="s">
         <v>210</v>
       </c>
@@ -10275,7 +10285,7 @@
       <c r="G19" s="69"/>
       <c r="H19" s="70"/>
     </row>
-    <row r="20" spans="2:8" ht="32">
+    <row r="20" spans="2:8" ht="28.8">
       <c r="B20" s="57" t="s">
         <v>364</v>
       </c>
@@ -10332,7 +10342,7 @@
       <c r="G24" s="81"/>
       <c r="H24" s="81"/>
     </row>
-    <row r="25" spans="2:8" ht="32">
+    <row r="25" spans="2:8">
       <c r="B25" s="84" t="s">
         <v>181</v>
       </c>
@@ -10467,13 +10477,13 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.19921875" style="45" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="45"/>
     <col min="3" max="3" width="14" style="45" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="45"/>
-    <col min="5" max="5" width="129.6640625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="129.69921875" style="45" customWidth="1"/>
     <col min="6" max="16384" width="11" style="45"/>
   </cols>
   <sheetData>
@@ -10638,7 +10648,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17">
+    <row r="12" spans="1:5">
       <c r="A12" s="32" t="s">
         <v>175</v>
       </c>
@@ -10653,7 +10663,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="17">
+    <row r="13" spans="1:5">
       <c r="A13" s="32" t="s">
         <v>193</v>
       </c>
@@ -10683,7 +10693,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="51">
+    <row r="15" spans="1:5" ht="46.8">
       <c r="A15" s="42" t="s">
         <v>193</v>
       </c>
@@ -10700,7 +10710,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="238">
+    <row r="16" spans="1:5" ht="218.4">
       <c r="A16" s="112" t="s">
         <v>378</v>
       </c>
